--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="143">
   <si>
     <t>total_ssas</t>
   </si>
@@ -39,7 +39,7 @@
     <t>distribuicao_semanal</t>
   </si>
   <si>
-    <t>{'Programável': 190}</t>
+    <t>{'PROGRAMÁVEL': 190}</t>
   </si>
   <si>
     <t>{'AAD': 68, 'ADM': 49, 'AAT': 40, 'SPG': 10, 'APG': 9, 'AIM': 6, 'APL': 4, 'SEE': 2, 'SCD': 1, 'APV': 1}</t>
@@ -54,7 +54,7 @@
     <t>{'202344': 23, '202352': 19, '202339': 12, '202319': 6, '202007': 6, '202440': 5, '202438': 4, '202437': 4, '202327': 4, '202410': 4, '202436': 4, '202433': 4, '202425': 4, '202312': 4, '202432': 4, '202412': 4, '202405': 4, '202439': 3, '202421': 3, '202401': 3, '202419': 3, '202408': 3, '202423': 2, '202340': 2, '202334': 2, '202335': 2, '202330': 2, '202326': 2, '202328': 2, '202345': 2, '202443': 2, '202428': 2, '202411': 2, '202404': 2, '202416': 2, '202429': 2, '202431': 1, '202434': 1, '202303': 1, '202249': 1, '202308': 1, '202337': 1, '202323': 1, '202310': 1, '202420': 1, '202424': 1, '202415': 1, '202414': 1, '202346': 1, '202336': 1, '202426': 1, '202406': 1, '202321': 1, '202338': 1, '202314': 1, '202318': 1, '202230': 1, '202215': 1, '202427': 1, '202252': 1, '202342': 1, '202341': 1, '202442': 1, '202237': 1, '202133': 1, '202050': 1, '201746': 1, '202149': 1}</t>
   </si>
   <si>
-    <t>Programável</t>
+    <t>PROGRAMÁVEL</t>
   </si>
   <si>
     <t>IEE3</t>
@@ -887,7 +887,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -905,9 +905,6 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -917,7 +914,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -928,7 +925,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -939,10 +936,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -950,10 +947,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -961,7 +958,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -972,10 +969,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -983,10 +980,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -994,10 +991,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1005,10 +1002,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1016,10 +1013,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1027,7 +1024,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1038,10 +1035,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1049,10 +1046,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1060,7 +1057,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1071,7 +1068,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1082,7 +1079,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1093,7 +1090,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1104,7 +1101,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1115,10 +1112,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1126,10 +1123,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1137,7 +1134,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1148,10 +1145,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1159,10 +1156,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -1170,10 +1167,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1181,10 +1178,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1192,10 +1189,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1203,10 +1200,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1214,10 +1211,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1225,10 +1222,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -1236,10 +1233,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -1247,10 +1244,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -1258,10 +1255,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -1269,7 +1266,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1280,10 +1277,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -1291,10 +1288,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -1302,7 +1299,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1313,7 +1310,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1324,7 +1321,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1346,7 +1343,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1357,7 +1354,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1368,7 +1365,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1379,10 +1376,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -1390,7 +1387,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -1401,10 +1398,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -1412,7 +1409,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1423,10 +1420,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -1434,7 +1431,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -1445,10 +1442,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -1456,7 +1453,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1467,7 +1464,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1478,7 +1475,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1489,7 +1486,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1500,7 +1497,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1511,7 +1508,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1522,7 +1519,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1533,7 +1530,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1544,7 +1541,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1555,10 +1552,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
@@ -1566,10 +1563,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -1577,7 +1574,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1588,7 +1585,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1599,7 +1596,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1610,7 +1607,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1621,7 +1618,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1632,7 +1629,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1643,7 +1640,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1654,7 +1651,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1665,7 +1662,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1676,7 +1673,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1687,7 +1684,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1698,7 +1695,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1709,7 +1706,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1720,7 +1717,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -1731,7 +1728,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1742,7 +1739,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1753,7 +1750,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1764,7 +1761,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1775,10 +1772,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -1786,10 +1783,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
@@ -1797,7 +1794,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1808,7 +1805,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1819,7 +1816,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1830,7 +1827,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1841,7 +1838,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -1852,7 +1849,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -1863,7 +1860,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1874,7 +1871,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1885,7 +1882,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -1896,7 +1893,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1907,7 +1904,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -1918,7 +1915,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -1929,7 +1926,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -1940,7 +1937,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -1951,7 +1948,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -1962,7 +1959,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1973,7 +1970,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -1984,7 +1981,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1995,10 +1992,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -2006,10 +2003,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -2017,10 +2014,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
@@ -2028,7 +2025,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -2039,7 +2036,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -2050,10 +2047,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B106">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
@@ -2061,10 +2058,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B107">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
@@ -2072,10 +2069,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
@@ -2083,10 +2080,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
@@ -2094,7 +2091,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -2105,7 +2102,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -2116,7 +2113,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -2127,7 +2124,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -2138,7 +2135,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -2149,7 +2146,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -2160,7 +2157,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -2171,7 +2168,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -2182,7 +2179,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -2193,7 +2190,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -2204,7 +2201,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -2215,7 +2212,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -2226,7 +2223,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -2237,7 +2234,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -2248,7 +2245,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -2259,7 +2256,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -2270,7 +2267,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -2281,12 +2278,23 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
+        <v>141</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
         <v>142</v>
       </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
         <v>12</v>
       </c>
     </row>

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>06/11/2024 15:53:08</t>
+    <t>07/11/2024 08:00:15</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>07/11/2024 08:00:15</t>
+    <t>07/11/2024 08:19:30</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>07/11/2024 08:19:30</t>
+    <t>07/11/2024 09:00:01</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>07/11/2024 09:00:01</t>
+    <t>07/11/2024 14:10:20</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>07/11/2024 14:10:20</t>
+    <t>07/11/2024 14:55:25</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>07/11/2024 14:55:25</t>
+    <t>07/11/2024 15:07:17</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>07/11/2024 15:07:17</t>
+    <t>07/11/2024 15:41:06</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>07/11/2024 15:41:06</t>
+    <t>08/11/2024 07:33:53</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>08/11/2024 07:33:53</t>
+    <t>08/11/2024 12:32:03</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>08/11/2024 12:32:03</t>
+    <t>08/11/2024 12:43:16</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>08/11/2024 12:43:16</t>
+    <t>08/11/2024 15:10:31</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>08/11/2024 15:10:31</t>
+    <t>08/11/2024 15:13:43</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>08/11/2024 15:13:43</t>
+    <t>08/11/2024 15:38:56</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>
@@ -3781,7 +3781,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="702" width="9.140625"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="62.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="500.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="45.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="36.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" customWidth="1"/>
+    <col min="20" max="20" width="502.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3843,7 +3863,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="702" width="9.140625"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="62.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="500.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="45.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="36.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" customWidth="1"/>
+    <col min="20" max="20" width="502.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3879,7 +3919,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="702" width="9.140625"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="62.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="500.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="45.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="36.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" customWidth="1"/>
+    <col min="20" max="20" width="502.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5227,7 +5287,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="702" width="9.140625"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="62.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="500.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="45.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="36.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" customWidth="1"/>
+    <col min="20" max="20" width="502.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5368,7 +5448,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="702" width="9.140625"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="62.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="500.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="45.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="36.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" customWidth="1"/>
+    <col min="20" max="20" width="502.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5498,7 +5598,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="702" width="9.140625"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="62.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="500.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="45.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="36.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" customWidth="1"/>
+    <col min="20" max="20" width="502.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5655,15 +5775,33 @@
   <dimension ref="A1:V176"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="702" width="9.140625"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="62.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="500.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="45.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="36.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" customWidth="1"/>
+    <col min="20" max="20" width="502.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -15688,15 +15826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="702" width="9.140625"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>08/11/2024 15:38:56</t>
+    <t>08/11/2024 15:48:56</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>08/11/2024 15:48:56</t>
+    <t>08/11/2024 16:40:32</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>

--- a/relatorio_ssas.xlsx
+++ b/relatorio_ssas.xlsx
@@ -3440,7 +3440,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>11/11/2024 11:07:11</t>
+    <t>18/11/2024 14:48:51</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(179)}</t>
